--- a/natmiOut/OldD7/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H2">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I2">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J2">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N2">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O2">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P2">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q2">
-        <v>29.54319187064263</v>
+        <v>30.30001594779133</v>
       </c>
       <c r="R2">
-        <v>29.54319187064263</v>
+        <v>272.700143530122</v>
       </c>
       <c r="S2">
-        <v>0.00139964849076363</v>
+        <v>0.001335700070235041</v>
       </c>
       <c r="T2">
-        <v>0.00139964849076363</v>
+        <v>0.001335700070235041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H3">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I3">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J3">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N3">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O3">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P3">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q3">
-        <v>54.47769600323857</v>
+        <v>55.26133471556866</v>
       </c>
       <c r="R3">
-        <v>54.47769600323857</v>
+        <v>497.352012440118</v>
       </c>
       <c r="S3">
-        <v>0.002580954194965735</v>
+        <v>0.00243605708947647</v>
       </c>
       <c r="T3">
-        <v>0.002580954194965735</v>
+        <v>0.00243605708947647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H4">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I4">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J4">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N4">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O4">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P4">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q4">
-        <v>41.98852399903884</v>
+        <v>47.42643202896133</v>
       </c>
       <c r="R4">
-        <v>41.98852399903884</v>
+        <v>426.8378882606519</v>
       </c>
       <c r="S4">
-        <v>0.00198926285629437</v>
+        <v>0.002090675090773299</v>
       </c>
       <c r="T4">
-        <v>0.00198926285629437</v>
+        <v>0.002090675090773299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H5">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I5">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J5">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N5">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O5">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P5">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q5">
-        <v>17.1652805637797</v>
+        <v>19.00697889735333</v>
       </c>
       <c r="R5">
-        <v>17.1652805637797</v>
+        <v>171.0628100761799</v>
       </c>
       <c r="S5">
-        <v>0.0008132282774260006</v>
+        <v>0.0008378749071253004</v>
       </c>
       <c r="T5">
-        <v>0.0008132282774260006</v>
+        <v>0.0008378749071253004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H6">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I6">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J6">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N6">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O6">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P6">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q6">
-        <v>4290.985762682181</v>
+        <v>4453.898322691914</v>
       </c>
       <c r="R6">
-        <v>4290.985762682181</v>
+        <v>40085.08490422722</v>
       </c>
       <c r="S6">
-        <v>0.2032912277361077</v>
+        <v>0.1963389165434736</v>
       </c>
       <c r="T6">
-        <v>0.2032912277361077</v>
+        <v>0.1963389165434736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H7">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I7">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J7">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N7">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O7">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P7">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q7">
-        <v>7912.585036754858</v>
+        <v>8123.044107418326</v>
       </c>
       <c r="R7">
-        <v>7912.585036754858</v>
+        <v>73107.39696676494</v>
       </c>
       <c r="S7">
-        <v>0.3748693693364256</v>
+        <v>0.358083989245949</v>
       </c>
       <c r="T7">
-        <v>0.3748693693364256</v>
+        <v>0.358083989245949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H8">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I8">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J8">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N8">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O8">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P8">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q8">
-        <v>6098.601649571711</v>
+        <v>6971.366167893068</v>
       </c>
       <c r="R8">
-        <v>6098.601649571711</v>
+        <v>62742.29551103762</v>
       </c>
       <c r="S8">
-        <v>0.2889294640865749</v>
+        <v>0.3073151610261023</v>
       </c>
       <c r="T8">
-        <v>0.2889294640865749</v>
+        <v>0.3073151610261023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H9">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I9">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J9">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N9">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O9">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P9">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q9">
-        <v>2493.162378463802</v>
+        <v>2793.897916629096</v>
       </c>
       <c r="R9">
-        <v>2493.162378463802</v>
+        <v>25145.08124966187</v>
       </c>
       <c r="S9">
-        <v>0.1181169243839602</v>
+        <v>0.1231619696141791</v>
       </c>
       <c r="T9">
-        <v>0.1181169243839602</v>
+        <v>0.1231619696141791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H10">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I10">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J10">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N10">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O10">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P10">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q10">
-        <v>8.670138692790475</v>
+        <v>10.84851711673256</v>
       </c>
       <c r="R10">
-        <v>8.670138692790475</v>
+        <v>97.63665405059298</v>
       </c>
       <c r="S10">
-        <v>0.0004107594937341337</v>
+        <v>0.00047822961874784</v>
       </c>
       <c r="T10">
-        <v>0.0004107594937341337</v>
+        <v>0.0004782296187478398</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H11">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I11">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J11">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N11">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O11">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P11">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q11">
-        <v>15.98775048003916</v>
+        <v>19.78558481910744</v>
       </c>
       <c r="R11">
-        <v>15.98775048003916</v>
+        <v>178.070263371967</v>
       </c>
       <c r="S11">
-        <v>0.0007574412043246008</v>
+        <v>0.0008721977928348109</v>
       </c>
       <c r="T11">
-        <v>0.0007574412043246008</v>
+        <v>0.0008721977928348108</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H12">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I12">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J12">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N12">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O12">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P12">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q12">
-        <v>12.32251166939699</v>
+        <v>16.98040227233755</v>
       </c>
       <c r="R12">
-        <v>12.32251166939699</v>
+        <v>152.823620451038</v>
       </c>
       <c r="S12">
-        <v>0.0005837955809245993</v>
+        <v>0.0007485383686550104</v>
       </c>
       <c r="T12">
-        <v>0.0005837955809245993</v>
+        <v>0.0007485383686550103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H13">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I13">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J13">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N13">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O13">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P13">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q13">
-        <v>5.037551928724396</v>
+        <v>6.805195623018887</v>
       </c>
       <c r="R13">
-        <v>5.037551928724396</v>
+        <v>61.24676060716998</v>
       </c>
       <c r="S13">
-        <v>0.0002386608050022167</v>
+        <v>0.0002999899500809372</v>
       </c>
       <c r="T13">
-        <v>0.0002386608050022167</v>
+        <v>0.0002999899500809371</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H14">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I14">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J14">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N14">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O14">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P14">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q14">
-        <v>26.21639370091084</v>
+        <v>27.13626735263033</v>
       </c>
       <c r="R14">
-        <v>26.21639370091084</v>
+        <v>244.226406173673</v>
       </c>
       <c r="S14">
-        <v>0.001242036948391075</v>
+        <v>0.001196234162756844</v>
       </c>
       <c r="T14">
-        <v>0.001242036948391075</v>
+        <v>0.001196234162756844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H15">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I15">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J15">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N15">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O15">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P15">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q15">
-        <v>48.34307452603537</v>
+        <v>49.49127273360967</v>
       </c>
       <c r="R15">
-        <v>48.34307452603537</v>
+        <v>445.421454602487</v>
       </c>
       <c r="S15">
-        <v>0.002290318243049317</v>
+        <v>0.002181698405050597</v>
       </c>
       <c r="T15">
-        <v>0.002290318243049317</v>
+        <v>0.002181698405050597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H16">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I16">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J16">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N16">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O16">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P16">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q16">
-        <v>37.26028253476596</v>
+        <v>42.47444428203534</v>
       </c>
       <c r="R16">
-        <v>37.26028253476596</v>
+        <v>382.269998538318</v>
       </c>
       <c r="S16">
-        <v>0.001765256050990039</v>
+        <v>0.001872379153478446</v>
       </c>
       <c r="T16">
-        <v>0.001765256050990039</v>
+        <v>0.001872379153478445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H17">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I17">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J17">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N17">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O17">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P17">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q17">
-        <v>15.2323335683245</v>
+        <v>17.02238249026333</v>
       </c>
       <c r="R17">
-        <v>15.2323335683245</v>
+        <v>153.20144241237</v>
       </c>
       <c r="S17">
-        <v>0.0007216523110659341</v>
+        <v>0.0007503889610813827</v>
       </c>
       <c r="T17">
-        <v>0.0007216523110659341</v>
+        <v>0.0007503889610813826</v>
       </c>
     </row>
   </sheetData>
